--- a/biology/Zoologie/Almiqui_paradoxal/Almiqui_paradoxal.xlsx
+++ b/biology/Zoologie/Almiqui_paradoxal/Almiqui_paradoxal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solenodon paradoxus
-Solenodon paradoxus, le Solénodon paradoxal[1] ou Almiqui paradoxal[2], plus simplement solénodonte[1] ou encore nez longue en français haïtien[réf. souhaitée], est une espèce antillaise en danger. Elle fait partie des mammifères de la famille des Solenodontidae qui comprend des sortes de grandes musaraignes primitives, terrestres, nocturnes, fouisseuses et insectivores, dont la morsure est venimeuse.
+Solenodon paradoxus, le Solénodon paradoxal ou Almiqui paradoxal, plus simplement solénodonte ou encore nez longue en français haïtien[réf. souhaitée], est une espèce antillaise en danger. Elle fait partie des mammifères de la famille des Solenodontidae qui comprend des sortes de grandes musaraignes primitives, terrestres, nocturnes, fouisseuses et insectivores, dont la morsure est venimeuse.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche zoologique de 1910
@@ -520,7 +534,7 @@
 Ce sont des mammifères nocturnes, fouisseurs et insectivores.
 Leur forme rappelle celle des musaraignes, mais de plus grande taille et leur museau, très long, est renforcé par un os, l'os proboscidien. Ces mammifères produisent une salive toxique qui se propage dans le corps de leurs proies lorsqu'ils les mordent.
 Il est l'un des rares mammifères vivants qui utilisent le poison, avec deux espèces de musaraignes (Blarina brevicauda) et l'ornithorynque.
-Ils sont en voie d'extinction en raison de la perte de leur habitat, la chasse, et l'introduction de prédateurs tels que les rats, mangoustes, les chiens et les chats[3].
+Ils sont en voie d'extinction en raison de la perte de leur habitat, la chasse, et l'introduction de prédateurs tels que les rats, mangoustes, les chiens et les chats.
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'île d'Hispaniola : elle se rencontre à Haïti et en République dominicaine.
-Une mission en 2007 a permis de redécouvrir une population de cette espèce en Haïti dans le massif de la Hotte[4].
+Une mission en 2007 a permis de redécouvrir une population de cette espèce en Haïti dans le massif de la Hotte.
 </t>
         </is>
       </c>
@@ -581,24 +597,95 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1833 par le naturaliste germano-russe Johann Friedrich von Brandt (1802-1879).
-Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille : Solenodontidae, genre : Solenodon[5].
-Traditionnellement, les espèces de cette famille sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle[6].
-Liste des sous-espèces
-Selon BioLib                    (14 août 2023)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1833 par le naturaliste germano-russe Johann Friedrich von Brandt (1802-1879).
+Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille : Solenodontidae, genre : Solenodon.
+Traditionnellement, les espèces de cette famille sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Almiqui_paradoxal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almiqui_paradoxal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 août 2023) :
 sous-espèce Solenodon paradoxus haitiensis Turvey &amp; al., 2016
 sous-espèce Solenodon paradoxus paradoxus Brandt, 1833
 sous-espèce Solenodon paradoxus woodi Ottenwalder, 2001
-Selon Mammal Species of the World (version 3, 2005)  (14 août 2023)[8] :
+Selon Mammal Species of the World (version 3, 2005)  (14 août 2023) :
 sous-espèce Solenodon paradoxus paradoxus
 sous-espèce Solenodon paradoxus woodi
-Selon NCBI  (14 août 2023)[9] :
+Selon NCBI  (14 août 2023) :
 sous-espèce Solenodon paradoxus paradoxus Brandt 1833
-sous-espèce Solenodon paradoxus woodi Ottenwalder, 2001
-Publication originale
-Brandt, 1833 : De Solenodonte, novo mammalium insectivorum genere. Memoires de l'Académie Impériale des Sciences de St. Pétersbourg sciences mathématiques, physiques et naturelles, ser. 6, vol. 2, p. 459–478.</t>
+sous-espèce Solenodon paradoxus woodi Ottenwalder, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Almiqui_paradoxal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almiqui_paradoxal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brandt, 1833 : De Solenodonte, novo mammalium insectivorum genere. Memoires de l'Académie Impériale des Sciences de St. Pétersbourg sciences mathématiques, physiques et naturelles, ser. 6, vol. 2, p. 459–478.</t>
         </is>
       </c>
     </row>
